--- a/gerin_ludovic_1_rapport_analyse_052022.xlsx
+++ b/gerin_ludovic_1_rapport_analyse_052022.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\OpenClassrooms\P4_optimisez_un_site_web_existant_gerin_ludovic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\OpenClassrooms\Projet 4 - code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E3D6D79-C0AF-48AC-ACBD-4CB93A0DED8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D9F975-A555-4D4F-BE40-B6B6F622267E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="915" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$A$1:$G$35</definedName>
+  </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -93,9 +96,6 @@
     <t>Remplacer les images contenant le texte par du texte uniquement.</t>
   </si>
   <si>
-    <t>Cours OC</t>
-  </si>
-  <si>
     <t>Il est préférable de recueillir les données de Google Analytics pour notre site afin de connaître le comportement des utilisateurs et analyser s'il y a des problèmes à corriger sur ce dernier.</t>
   </si>
   <si>
@@ -225,9 +225,6 @@
     <t>Les images trop grandes et non compressées sont plus lourdes donc plus longues à charger, ce qui augmente le temps de chargement de la page. Ceci est mauvais pour l'utilisateur (augmentation du taux de rebond) et pour la crawlabilité (le moteur de recherche utilise plus de ressources et indexe donc moins de pages de notre site).</t>
   </si>
   <si>
-    <t>Les images du sites sont trop volumineuses.</t>
-  </si>
-  <si>
     <t>Il y a plusieurs fois le même bouton et ainsi la même ancre vers la page 2.</t>
   </si>
   <si>
@@ -288,76 +285,82 @@
     <t>Supprimer ces mots clés cachés pour ne pas disparaitre des résultats de recherche.</t>
   </si>
   <si>
+    <t>Les pages d'un site doivent être faites de la même façon visuellement et fonctionnellement afin que les visiteurs n'aient pas à réapprendre le fonctionnement du site à chaque changement de page et ainsi, faciliter l'expérience utilisateur. Ce qui permet également de réduire le taux de rebond.</t>
+  </si>
+  <si>
+    <t>Il n'y a pas de lien dans notre code pour analyser les données de Google Analytics.</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578342-realisez-un-audit-de-votre-site</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5922626-optimisez-le-referencement-de-votre-site-seo-en-ameliorant-ses-performances-techniques/6055226-pensez-mobile-first</t>
+  </si>
+  <si>
+    <t>https://www.pluralsight.com/guides/semantic-html</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/web/accessibility/mobile_accessibility_checklist</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5922626-optimisez-le-referencement-de-votre-site-seo-en-ameliorant-ses-performances-techniques/6055231-allegez-les-pages-de-votre-site</t>
+  </si>
+  <si>
+    <t>https://pagespeed.web.dev/?hl=fr</t>
+  </si>
+  <si>
+    <t>Le site est développé, en grande majorité, avec des balises &lt;div&gt; uniquement.  En matière de SEO, plus le site sera développé avec un code "propre", c'est-à-dire qui utilise les bonnes balises HTML5 comme &lt;header&gt;, &lt;section&gt;, &lt;footer&gt;, etc, plus le moteur de recherche fera confiance au site, pourra interpréter son contenu et le référencera correctement. Pour ce qui est de l'accessibilité, il est important d'avoir un site bien structuré afin de pouvoir y naviguer convenablement.</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578343-optimisez-le-contenu-de-vos-pages</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5561438-analysez-le-fonctionnement-de-google</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578349-analysez-vos-kpis-grace-a-google-analytics</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible/6941263-creez-des-designs-visuels-accessibles</t>
+  </si>
+  <si>
+    <t>Colour Contrast Analyser</t>
+  </si>
+  <si>
+    <t>https://wave.webaim.org/report#/https://dakedaw.github.io/projet_4_OC_vanilla/</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578346-augmentez-lautorite-de-votre-site</t>
+  </si>
+  <si>
+    <t>https://www.washington.edu/accessibility/web/landmarks/</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible/6941406-rendez-les-interactions-sur-le-site-accessibles</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible/6940953-creez-des-tests-daccessibilite</t>
+  </si>
+  <si>
+    <t>https://www.seomix.fr/ancres-multiples/</t>
+  </si>
+  <si>
+    <t>Cette balise n'est plus très utile puisque les moteurs de recherche détectent plutôt les mots clés dans les titres et le contenu des pages web. De plus les mots utilisés dans cette dernière ne correspondent pas forcément aux bons mots clés et certains sont répétés beaucoup de fois, ce qui est considéré comme du spam.</t>
+  </si>
+  <si>
+    <t>https://optimiz.me/la-balise-meta-keywords/</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Les images du site sont trop volumineuses.</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5922626-optimisez-le-referencement-de-votre-site-seo-en-ameliorant-ses-performances-techniques/6055216-ameliorez-votre-crawlabilite-pour-une-meilleure-indexation</t>
+  </si>
+  <si>
     <t>L'aspect visuel des 2 pages ne sont pas les mêmes.</t>
-  </si>
-  <si>
-    <t>Les pages d'un site doivent être faites de la même façon visuellement et fonctionnellement afin que les visiteurs n'aient pas à réapprendre le fonctionnement du site à chaque changement de page et ainsi, faciliter l'expérience utilisateur. Ce qui permet également de réduire le taux de rebond.</t>
-  </si>
-  <si>
-    <t>Il n'y a pas de lien dans notre code pour analyser les données de Google Analytics.</t>
-  </si>
-  <si>
-    <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578342-realisez-un-audit-de-votre-site</t>
-  </si>
-  <si>
-    <t>https://openclassrooms.com/fr/courses/5922626-optimisez-le-referencement-de-votre-site-seo-en-ameliorant-ses-performances-techniques/6055226-pensez-mobile-first</t>
-  </si>
-  <si>
-    <t>https://www.pluralsight.com/guides/semantic-html</t>
-  </si>
-  <si>
-    <t>https://developer.mozilla.org/fr/docs/web/accessibility/mobile_accessibility_checklist</t>
-  </si>
-  <si>
-    <t>https://openclassrooms.com/fr/courses/5922626-optimisez-le-referencement-de-votre-site-seo-en-ameliorant-ses-performances-techniques/6055231-allegez-les-pages-de-votre-site</t>
-  </si>
-  <si>
-    <t>https://pagespeed.web.dev/?hl=fr</t>
-  </si>
-  <si>
-    <t>Le site est développé, en grande majorité, avec des balises &lt;div&gt; uniquement.  En matière de SEO, plus le site sera développé avec un code "propre", c'est-à-dire qui utilise les bonnes balises HTML5 comme &lt;header&gt;, &lt;section&gt;, &lt;footer&gt;, etc, plus le moteur de recherche fera confiance au site, pourra interpréter son contenu et le référencera correctement. Pour ce qui est de l'accessibilité, il est important d'avoir un site bien structuré afin de pouvoir y naviguer convenablement.</t>
-  </si>
-  <si>
-    <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578343-optimisez-le-contenu-de-vos-pages</t>
-  </si>
-  <si>
-    <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5561438-analysez-le-fonctionnement-de-google</t>
-  </si>
-  <si>
-    <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578349-analysez-vos-kpis-grace-a-google-analytics</t>
-  </si>
-  <si>
-    <t>https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible/6941263-creez-des-designs-visuels-accessibles</t>
-  </si>
-  <si>
-    <t>Colour Contrast Analyser</t>
-  </si>
-  <si>
-    <t>https://wave.webaim.org/report#/https://dakedaw.github.io/projet_4_OC_vanilla/</t>
-  </si>
-  <si>
-    <t>https://openclassrooms.com/fr/courses/5561431-augmentez-votre-trafic-grace-au-referencement-naturel-seo/5578346-augmentez-lautorite-de-votre-site</t>
-  </si>
-  <si>
-    <t>https://www.washington.edu/accessibility/web/landmarks/</t>
-  </si>
-  <si>
-    <t>https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible/6941406-rendez-les-interactions-sur-le-site-accessibles</t>
-  </si>
-  <si>
-    <t>https://openclassrooms.com/fr/courses/6691346-concevez-un-contenu-web-accessible/6940953-creez-des-tests-daccessibilite</t>
-  </si>
-  <si>
-    <t>https://www.seomix.fr/ancres-multiples/</t>
-  </si>
-  <si>
-    <t>Cette balise n'est plus très utile puisque les moteurs de recherche détectent plutôt les mots clés dans les titres et le contenu des pages web. De plus les mots utilisés dans cette dernière ne correspondent pas forcément aux bons mots clés et certains sont répétés beaucoup de fois, ce qui est considéré comme du spam.</t>
-  </si>
-  <si>
-    <t>https://optimiz.me/la-balise-meta-keywords/</t>
-  </si>
-  <si>
-    <t>X</t>
   </si>
 </sst>
 </file>
@@ -471,12 +474,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -486,11 +483,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -508,6 +511,3947 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="ZoneTexte 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63C5149F-B18B-4785-8256-8DB755670194}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7829550" y="200025"/>
+          <a:ext cx="257175" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="ZoneTexte 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74255931-0166-4A22-B79F-49669C71312D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1438275"/>
+          <a:ext cx="257175" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="ZoneTexte 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8DB265F-B210-4090-B41B-3884B9757774}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7829550" y="1438275"/>
+          <a:ext cx="257175" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="ZoneTexte 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8807E15E-1573-408B-BC08-015E4CBD3003}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="200025"/>
+          <a:ext cx="257175" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="ZoneTexte 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3D9F228-C68A-430F-8CBB-3AAFA0CC6483}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3190875"/>
+          <a:ext cx="257175" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="ZoneTexte 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9961FBC3-7916-4D87-AAC9-A8124D8F9AF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7829550" y="3190875"/>
+          <a:ext cx="257175" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="ZoneTexte 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{876236C8-8E36-4AEE-BE48-A8791F0A2698}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4905375"/>
+          <a:ext cx="257175" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="ZoneTexte 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36F17B9B-39C4-4BB2-AA48-489C1A9570AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7829550" y="4905375"/>
+          <a:ext cx="257175" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="ZoneTexte 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36CACF7C-9F83-4932-AFBE-4ABBC1C9F926}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6334125"/>
+          <a:ext cx="257175" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="ZoneTexte 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12F806E4-680A-4391-BFCB-AC4CE87C0ACD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7829550" y="6334125"/>
+          <a:ext cx="257175" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="ZoneTexte 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{100BDC64-C525-447D-8CDB-5CCFB894848A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8143875"/>
+          <a:ext cx="257175" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="ZoneTexte 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{489C9AB1-58C1-45B0-9968-6DAB5117A283}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7829550" y="8143875"/>
+          <a:ext cx="257175" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="ZoneTexte 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E8FFCE1-F013-407D-9B46-B643F5504896}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9191625"/>
+          <a:ext cx="257175" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>7</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="ZoneTexte 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30FD2122-C2C3-4B88-9709-6C5C020EF65B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7829550" y="9191625"/>
+          <a:ext cx="257175" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>7</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="ZoneTexte 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEFFB40B-F247-40E6-91A1-0250A08A9148}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="10620375"/>
+          <a:ext cx="257175" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>8</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="ZoneTexte 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4EA3D0B-1296-472B-AEE0-69CB013FBEB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7829550" y="10620375"/>
+          <a:ext cx="257175" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>8</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="ZoneTexte 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8CD61E7-EFA2-4BAF-875C-04AB6F692673}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="13315950"/>
+          <a:ext cx="257175" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>9</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="ZoneTexte 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34D2B865-30AA-4BA1-8A7D-2AA42795CF74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7829550" y="13315950"/>
+          <a:ext cx="257175" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>9</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="ZoneTexte 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFFDF28A-CE20-469B-9C22-767D23D19766}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7829550" y="29889450"/>
+          <a:ext cx="257175" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="ZoneTexte 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F59D4169-2BE8-47AA-A9B6-DC3A99F67733}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="29889450"/>
+          <a:ext cx="257175" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="ZoneTexte 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E36BA867-93B9-4899-AE60-C3F7CA1AB19E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="28555950"/>
+          <a:ext cx="257175" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="ZoneTexte 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B193C9A-93C5-47CA-8BC4-2501234AF99A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="27031950"/>
+          <a:ext cx="257175" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="ZoneTexte 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CCF1E72-1E54-4DD1-BBB8-BE10E91311B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7829550" y="28555950"/>
+          <a:ext cx="257175" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="ZoneTexte 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9607434-F66C-4940-B169-16CB2895CAA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7829550" y="27031950"/>
+          <a:ext cx="257175" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="ZoneTexte 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B04AC91-D278-4204-867F-8EA7076FA911}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7829550" y="24841200"/>
+          <a:ext cx="257175" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="ZoneTexte 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{072F3DB8-2F31-4C58-8D89-C11F969BD3F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="24841200"/>
+          <a:ext cx="257175" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="ZoneTexte 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C0BFC1D-533F-4DD0-ABD6-78D6DCE462AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="22078950"/>
+          <a:ext cx="257175" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="ZoneTexte 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F2C9B6E-2CBD-451F-8897-BB793341F31D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7829550" y="22078950"/>
+          <a:ext cx="257175" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="ZoneTexte 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD5C920B-1EA0-4AF5-9086-876E7064E8B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7829550" y="19030950"/>
+          <a:ext cx="257175" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="ZoneTexte 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F2A65EE-7456-45D4-B278-ADC11E775A13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="19030950"/>
+          <a:ext cx="257175" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="ZoneTexte 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0AB9649-CFAC-4006-9D30-FBB3E8E21B92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="18078450"/>
+          <a:ext cx="257175" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="ZoneTexte 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AC3A7AD-6873-4209-9A3F-4B0C315B94B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7829550" y="18078450"/>
+          <a:ext cx="257175" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="ZoneTexte 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80C2D804-83C1-4638-8D74-72E0AE833CBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7829550" y="16459200"/>
+          <a:ext cx="257175" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="ZoneTexte 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{027BC2E7-5EF6-4366-A16F-C23F674C2B92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="16459200"/>
+          <a:ext cx="257175" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="ZoneTexte 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DFB2383-7BB5-407D-913F-A4DE582A20F7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="15411450"/>
+          <a:ext cx="257175" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="ZoneTexte 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D39EB1B-1D7D-4F82-9FBF-1BA77AFF7CDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="14363700"/>
+          <a:ext cx="342900" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>10</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="ZoneTexte 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F32C467D-84FD-4BDF-8E25-954948464E27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7829550" y="14363700"/>
+          <a:ext cx="257175" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="ZoneTexte 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93449577-07DF-4CB3-B1AA-2754616E14CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7829550" y="15411450"/>
+          <a:ext cx="257175" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="fr-FR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="ZoneTexte 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F68DFCCA-A242-4227-B77D-590D48806A49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7829550" y="14363700"/>
+          <a:ext cx="342900" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>10</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="ZoneTexte 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B40854FA-ABC6-4671-A027-D0A41D95D1D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="15411450"/>
+          <a:ext cx="342900" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>11</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="ZoneTexte 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9C1E4FB-CD17-458F-9E6D-B537887A19B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7829550" y="15411450"/>
+          <a:ext cx="342900" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>11</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="ZoneTexte 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{276A9F89-AE0E-409F-8707-50D0BA951B6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="16459200"/>
+          <a:ext cx="342900" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>12</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="ZoneTexte 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92232EC3-A7C4-4C60-AC62-E4BD34863197}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7829550" y="16459200"/>
+          <a:ext cx="342900" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>12</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="ZoneTexte 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20244F23-80BB-455D-B812-886B2304D498}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="18078450"/>
+          <a:ext cx="342900" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>13</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="ZoneTexte 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76F6C27D-B7AD-4B30-AAE9-3DF64DE9361A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7829550" y="18078450"/>
+          <a:ext cx="342900" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>13</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="ZoneTexte 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3A00013-AD2F-45ED-BE6D-E80463D4EBDF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="19030950"/>
+          <a:ext cx="342900" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>14</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="ZoneTexte 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CE73E4F-6E54-495D-AE6D-6986AF650B65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7829550" y="19030950"/>
+          <a:ext cx="342900" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>14</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="ZoneTexte 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F850F5D-8779-49C6-AF98-5BB4BBF8A50D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="22078950"/>
+          <a:ext cx="342900" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>15</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="ZoneTexte 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFE0439A-0DA3-4492-95C0-E35D72DF7D62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7829550" y="22078950"/>
+          <a:ext cx="342900" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>15</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="ZoneTexte 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F7572E0-84D3-474C-80AA-38078E46BC1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="24841200"/>
+          <a:ext cx="342900" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>16</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="ZoneTexte 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52F45415-571E-47CD-AD69-447133BAA036}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7829550" y="24841200"/>
+          <a:ext cx="342900" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>16</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="ZoneTexte 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3BF379A6-76D5-4831-A092-7CDC1F1C2B87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="27031950"/>
+          <a:ext cx="342900" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>17</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="ZoneTexte 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5339D0BC-5707-4A8C-8E44-C1965EFD3130}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7829550" y="27031950"/>
+          <a:ext cx="342900" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>17</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="ZoneTexte 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5523DA7-6976-4D57-854D-4A210D0905BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="28555950"/>
+          <a:ext cx="342900" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>18</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="ZoneTexte 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62106B8D-58F1-49A4-896B-5A4D1B93D226}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7829550" y="28555950"/>
+          <a:ext cx="342900" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>18</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="ZoneTexte 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4047EAD-0B2C-4D0C-AFF7-E309D05A95EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="29889450"/>
+          <a:ext cx="342900" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>19</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="72" name="ZoneTexte 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{935D9722-7397-416E-8ED6-DCA22A0BBCF4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7829550" y="29889450"/>
+          <a:ext cx="342900" cy="276225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1100"/>
+            <a:t>19</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -710,8 +4654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1016"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -771,98 +4715,98 @@
         <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>35</v>
-      </c>
       <c r="F2" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>108</v>
+        <v>85</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="A3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>108</v>
+        <v>85</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
       <c r="F4" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="14"/>
+        <v>88</v>
+      </c>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:26" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="B5" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>80</v>
+      <c r="E5" s="11" t="s">
+        <v>78</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>108</v>
+        <v>89</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
       <c r="F6" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G6" s="14"/>
+        <v>90</v>
+      </c>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:26" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>8</v>
@@ -871,152 +4815,152 @@
         <v>16</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>108</v>
+        <v>86</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="B8" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>43</v>
-      </c>
       <c r="F8" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>108</v>
+        <v>92</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
       <c r="F9" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G9" s="14"/>
+        <v>87</v>
+      </c>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:26" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="D11" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>108</v>
+        <v>77</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>25</v>
-      </c>
       <c r="F12" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>108</v>
+        <v>95</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
       <c r="F13" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" s="14"/>
+        <v>96</v>
+      </c>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:26" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
       <c r="F14" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G14" s="14"/>
+        <v>88</v>
+      </c>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:26" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
       <c r="F15" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="G15" s="14"/>
+        <v>97</v>
+      </c>
+      <c r="G15" s="13"/>
     </row>
-    <row r="16" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -1033,10 +4977,10 @@
         <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>108</v>
+        <v>98</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -1044,252 +4988,252 @@
         <v>6</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>108</v>
+        <v>94</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>41</v>
-      </c>
       <c r="F18" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="9" t="s">
+      <c r="A19" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="D19" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>47</v>
+      <c r="E19" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+    <row r="20" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
       <c r="F20" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>98</v>
+      <c r="D22" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
+    <row r="23" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
       <c r="F23" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
       <c r="F24" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
       <c r="F25" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="9" t="s">
+    <row r="26" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="D26" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>57</v>
-      </c>
       <c r="F26" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
+    <row r="27" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
       <c r="F27" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
+    <row r="28" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
       <c r="F28" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="9" t="s">
+      <c r="A29" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="E29" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>62</v>
-      </c>
       <c r="F29" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
       <c r="F30" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
       <c r="F31" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D32" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="E32" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D32" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>68</v>
-      </c>
       <c r="F32" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
       <c r="F33" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.2">
@@ -1297,39 +5241,39 @@
         <v>6</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E34" s="6" t="s">
+      <c r="F34" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="F34" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="10" t="s">
+      <c r="D35" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D35" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E35" s="10" t="s">
+      <c r="F35" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2385,32 +6329,16 @@
     <row r="1016" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="G12:G15"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="D12:D15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="C22:C25"/>
     <mergeCell ref="D22:D25"/>
     <mergeCell ref="E22:E25"/>
@@ -2424,16 +6352,32 @@
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="G12:G15"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="D12:D15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{84C8A4F2-A7AB-43A1-8355-AC7065C8EE4D}"/>
@@ -2468,8 +6412,10 @@
     <hyperlink ref="F32" r:id="rId30" xr:uid="{D3E82DE8-8C92-4297-9062-685D363C0FCA}"/>
     <hyperlink ref="F34" r:id="rId31" xr:uid="{4A2CE76C-74EB-4796-A029-32182F68E9D0}"/>
     <hyperlink ref="F35" r:id="rId32" xr:uid="{903C5BD7-C627-4DBF-BC1A-49FC8B8C3D4A}"/>
+    <hyperlink ref="F11" r:id="rId33" xr:uid="{582961D2-535B-4C41-95BE-EEF7601143D4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId33"/>
+  <pageSetup orientation="landscape" r:id="rId34"/>
+  <drawing r:id="rId35"/>
 </worksheet>
 </file>
--- a/gerin_ludovic_1_rapport_analyse_052022.xlsx
+++ b/gerin_ludovic_1_rapport_analyse_052022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\OpenClassrooms\Projet 4 - code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D9F975-A555-4D4F-BE40-B6B6F622267E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23DE70B-8745-48FD-82F0-9757CA333F14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="915" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -165,9 +165,6 @@
     <t>Remplacer les balises &lt;div&gt; par les balises qui conviennent lorsque c'est nécessaire.</t>
   </si>
   <si>
-    <t>Des mots clé ont été ajoutés dans le header et le footer avec un fond de la meme couleur que celui-ci pour les cacher.</t>
-  </si>
-  <si>
     <t>Des textes écrits trop petits ou utilisant une police difficile à lire représentent un obstacle pour les utilisateurs. Ceci peut ralentir la vitesse de lecture et augmenter les efforts nécessaires pour venir à bout de ceux-ci.</t>
   </si>
   <si>
@@ -361,6 +358,9 @@
   </si>
   <si>
     <t>L'aspect visuel des 2 pages ne sont pas les mêmes.</t>
+  </si>
+  <si>
+    <t>Des mots clés ont été ajoutés dans le header et le footer avec un fond de la même couleur que celui-ci pour les cacher.</t>
   </si>
 </sst>
 </file>
@@ -486,14 +486,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4654,8 +4654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1016"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4727,21 +4727,21 @@
         <v>34</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="12" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>17</v>
@@ -4750,44 +4750,44 @@
         <v>19</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>105</v>
+        <v>84</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
+      <c r="A4" s="12"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" s="13"/>
+        <v>87</v>
+      </c>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:26" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>105</v>
+        <v>88</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4797,16 +4797,16 @@
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
       <c r="F6" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G6" s="13"/>
+        <v>89</v>
+      </c>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:26" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>8</v>
@@ -4815,13 +4815,13 @@
         <v>16</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.2">
@@ -4832,7 +4832,7 @@
         <v>35</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>41</v>
@@ -4841,10 +4841,10 @@
         <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>105</v>
+        <v>91</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4854,54 +4854,54 @@
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
       <c r="F9" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G9" s="13"/>
+        <v>86</v>
+      </c>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:26" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>31</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>77</v>
-      </c>
       <c r="F11" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="69.95" customHeight="1" x14ac:dyDescent="0.2">
@@ -4921,10 +4921,10 @@
         <v>24</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>105</v>
+        <v>94</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4934,9 +4934,9 @@
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G13" s="13"/>
+        <v>95</v>
+      </c>
+      <c r="G13" s="14"/>
     </row>
     <row r="14" spans="1:26" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="11"/>
@@ -4945,9 +4945,9 @@
       <c r="D14" s="11"/>
       <c r="E14" s="11"/>
       <c r="F14" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G14" s="13"/>
+        <v>87</v>
+      </c>
+      <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:26" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11"/>
@@ -4956,9 +4956,9 @@
       <c r="D15" s="11"/>
       <c r="E15" s="11"/>
       <c r="F15" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G15" s="13"/>
+        <v>96</v>
+      </c>
+      <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:26" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
@@ -4977,10 +4977,10 @@
         <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4988,7 +4988,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>20</v>
@@ -5000,10 +5000,10 @@
         <v>21</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5023,7 +5023,7 @@
         <v>40</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5040,10 +5040,10 @@
         <v>30</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5053,7 +5053,7 @@
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5061,19 +5061,19 @@
         <v>25</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>48</v>
-      </c>
       <c r="F21" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5081,19 +5081,19 @@
         <v>25</v>
       </c>
       <c r="B22" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="11" t="s">
+      <c r="E22" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="11" t="s">
-        <v>53</v>
-      </c>
       <c r="F22" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.2">
@@ -5103,7 +5103,7 @@
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5113,7 +5113,7 @@
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5123,7 +5123,7 @@
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5131,19 +5131,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="D26" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D26" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>56</v>
-      </c>
       <c r="F26" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5153,7 +5153,7 @@
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.2">
@@ -5163,7 +5163,7 @@
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5171,19 +5171,19 @@
         <v>25</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="E29" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="11" t="s">
-        <v>61</v>
-      </c>
       <c r="F29" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5193,7 +5193,7 @@
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5203,7 +5203,7 @@
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="82.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5211,19 +5211,19 @@
         <v>6</v>
       </c>
       <c r="B32" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="D32" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="11" t="s">
+      <c r="E32" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="11" t="s">
-        <v>66</v>
-      </c>
       <c r="F32" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5233,7 +5233,7 @@
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="105" customHeight="1" x14ac:dyDescent="0.2">
@@ -5241,19 +5241,19 @@
         <v>6</v>
       </c>
       <c r="B34" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="E34" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="90" customHeight="1" x14ac:dyDescent="0.2">
@@ -5261,19 +5261,19 @@
         <v>6</v>
       </c>
       <c r="B35" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F35" s="9" t="s">
         <v>74</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6329,34 +6329,11 @@
     <row r="1016" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="D29:D31"/>
-    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="G8:G9"/>
@@ -6373,11 +6350,34 @@
     <mergeCell ref="E12:E15"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="D29:D31"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{84C8A4F2-A7AB-43A1-8355-AC7065C8EE4D}"/>
